--- a/EduAnalysisTool/input_tool/edu_table_helper_EN_SSD.xlsx
+++ b/EduAnalysisTool/input_tool/edu_table_helper_EN_SSD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BF45E9D-C0D1-4513-9790-664110F769D9}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7FFD11C-B808-4C97-BDD3-23149743E4D4}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" firstSheet="2" activeTab="2" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="9510" yWindow="-4225" windowWidth="19380" windowHeight="11460" activeTab="5" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="83">
   <si>
     <t>tab</t>
   </si>
@@ -89,18 +89,12 @@
     <t>Disruptions</t>
   </si>
   <si>
-    <t>% of school-aged children who attended school or any early childhood education program at any time during the 2023-2024 school year </t>
-  </si>
-  <si>
     <t>% of school-aged children whose education was disrupted due to teacher's absence</t>
   </si>
   <si>
     <t>% of school-aged children whose education was disrupted due to natural hazards</t>
   </si>
   <si>
-    <t>% of school-aged children  who did not attend school or any early childhood education program at any time during the 2023-2024 school year</t>
-  </si>
-  <si>
     <t>% of school-aged children of primary school age currently attending primary or higher</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>School Attendance Profile: primary</t>
   </si>
   <si>
-    <t>% of school-aged children of intermediate school level age currently attending intermediate school level or higher</t>
-  </si>
-  <si>
     <t>School Attendance Profile: intermediate -- secondary</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>% of OoS children</t>
   </si>
   <si>
-    <t>There is a lack of interest/Education is not a priority either for the child or the household</t>
-  </si>
-  <si>
     <t>non_formal</t>
   </si>
   <si>
@@ -197,15 +185,9 @@
     <t>no difficulty -- % of school-aged children with at least one of WG-SS component is at level 'no difficulty'</t>
   </si>
   <si>
-    <t>% of school-aged children whose education was disrupted due to the school being occupied by armed groups</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
-    <t>Cannot afford the direct costs of education</t>
-  </si>
-  <si>
     <t xml:space="preserve">Public school </t>
   </si>
   <si>
@@ -230,23 +212,95 @@
     <t>type school</t>
   </si>
   <si>
-    <t>% of school-aged children attending secondary school who are at least 2 years above the intended age for their grade</t>
-  </si>
-  <si>
-    <t>Child needs to work at home or on the household's own farm</t>
-  </si>
-  <si>
-    <t>Lack of appropriate and accessible school</t>
-  </si>
-  <si>
-    <t>School has been closed due to damage, natural disaster, conflict</t>
+    <t>% of school-aged children  who did not attend school or any early childhood education program at any time during the 2024-2025 school year</t>
+  </si>
+  <si>
+    <t>% of school-aged children who attended school or any early childhood education program at any time during the 2024-2025 school year </t>
+  </si>
+  <si>
+    <t>% of school-aged children whose education was disrupted due to direct attack on education</t>
+  </si>
+  <si>
+    <t>% of school-aged children attending secondary who are at least 2 years above the intended age for their grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cannot afford the direct costs of education , e.g. tuition, supplies, transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There is a lack of interest for formal education</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Education is not a priority either for the child or the household</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lack of appropriate and accessible school</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The child is too young</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> School does not have enough classrooms that are usable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> School's WASH facilities are in poor condition or not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> School has been closed due to damage, natural disaster, conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lack of or poor quality of teachers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Curriculum and/or the certificates issued by school are not perceived to be useful for the household</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Protection risks whilst at the school</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marriage, engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The child's disability or health issues prevents them from accessing school</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Language issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There is a ban preventing child from attending</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unable to enroll in school due to lack of documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unable to enroll in school due to recent displacement/return , displacement since after the start of the school year</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discrimination or stigmatization of the child for any reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The child has already graduated from secondary education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other , specify</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don't know</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prefer not to answer</t>
+  </si>
+  <si>
+    <t>% of school-aged children of secondary school level age currently attending secondary school or higher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,13 +332,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Tw Cen MT"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,8 +356,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -307,37 +378,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color rgb="FF007D70"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="dotted">
-        <color rgb="FF007D70"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="dotted">
-        <color rgb="FF007D70"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="dotted">
-        <color rgb="FF007D70"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF007D70"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF007D70"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -354,10 +416,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3" xfId="1" xr:uid="{F5926E20-CCAC-4642-87FD-D0DA4C1FB8CE}"/>
   </cellStyles>
@@ -693,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B085A-F222-4D02-94C7-458C197FFE9F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -743,34 +815,34 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G5" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -818,51 +890,51 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G5" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +947,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,12 +982,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -924,26 +996,26 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -954,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,53 +1065,138 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>52</v>
+      <c r="G2" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="7" t="s">
-        <v>51</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1209,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,12 +1240,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1097,24 +1254,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
+      <c r="G2" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1174,26 +1331,26 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1205,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234059E-FF89-4231-AEDD-537A0FD72374}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,12 +1394,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1251,24 +1408,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
+      <c r="G2" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1438,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1326,24 +1483,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1356,7 +1513,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1401,24 +1558,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1469,10 +1626,10 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1481,54 +1638,54 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G5" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G9" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
